--- a/仕様書＿河野.xlsx
+++ b/仕様書＿河野.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_EEF24BC7C21C2CF90E0FB6AA38FE8DD3C8C645EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2696A012-672A-497F-A99D-345CB408C0A3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ステータスUI" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +95,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -138,7 +145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -203,7 +216,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -247,7 +266,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -291,7 +316,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -356,7 +387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -421,7 +458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -486,7 +529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -530,7 +579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -574,7 +629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -639,7 +700,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -704,7 +771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -748,7 +821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -813,7 +892,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -857,7 +942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -901,7 +992,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -945,7 +1042,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1010,7 +1113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1054,7 +1163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1098,7 +1213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1163,7 +1284,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1207,7 +1334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1251,7 +1384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1295,7 +1434,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1339,7 +1484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1383,7 +1534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1448,7 +1605,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1513,7 +1676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1578,7 +1747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1622,7 +1797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1666,7 +1847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1710,7 +1897,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1754,7 +1947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1798,7 +1997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1842,7 +2047,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1886,7 +2097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1951,7 +2168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2016,7 +2239,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2066,6 +2295,423 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D0AE67-6171-05FE-7AAF-B2BAC963C207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533399" y="2933699"/>
+          <a:ext cx="1762125" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E97C32-09C2-420C-B56C-455AA64C70B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409949" y="2924174"/>
+          <a:ext cx="1762125" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9340828-2496-492C-9D37-233444A28287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276974" y="2838449"/>
+          <a:ext cx="1885951" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219EA6B-8D85-428A-A119-DD6DB1CBAE82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="2600325"/>
+          <a:ext cx="2152650" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD06B774-4534-47FB-AD64-919895BF27EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257549" y="2733675"/>
+          <a:ext cx="1933575" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AEE2CF-AC76-4650-91DB-FF5B63ED025A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228599" y="2781300"/>
+          <a:ext cx="1990725" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627030CF-5BF2-4A89-A2FB-3E954DFA518D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380999" y="0"/>
+          <a:ext cx="1990725" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 角を丸めた四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0D6D6B-DC8C-A34E-C737-E6C7581058CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="771524"/>
+          <a:ext cx="2419350" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -128707"/>
+            <a:gd name="adj2" fmla="val 19057"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>虹色の上昇マークはアイテムの組み合わせによって追加される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2086,7 +2732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2140,7 +2792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2194,7 +2852,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2254,7 +2918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2298,7 +2968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2358,7 +3034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2405,25 +3087,402 @@
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3190875" y="180976"/>
-          <a:ext cx="1800225" cy="457199"/>
+          <a:ext cx="2505075" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -163161"/>
             <a:gd name="adj2" fmla="val 44039"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>前の画面に戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="533400"/>
+          <a:ext cx="5334000" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2743200"/>
+          <a:ext cx="1276350" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="2743200"/>
+          <a:ext cx="1276350" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="2743200"/>
+          <a:ext cx="1276350" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="666750"/>
+          <a:ext cx="628650" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="400050"/>
+          <a:ext cx="1800225" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90145"/>
+            <a:gd name="adj2" fmla="val 33622"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2457,341 +3516,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="533400"/>
-          <a:ext cx="5334000" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="2743200"/>
-          <a:ext cx="1276350" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="2743200"/>
-          <a:ext cx="1276350" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4962525" y="2743200"/>
-          <a:ext cx="1276350" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="666750"/>
-          <a:ext cx="628650" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3009900" y="400050"/>
-          <a:ext cx="1800225" cy="457199"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -90145"/>
-            <a:gd name="adj2" fmla="val 33622"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>前の画面に戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2807,7 +3531,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2845,57 +3575,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>アイテムの購入に必要な金額とアイテムの効果</a:t>
+            <a:t>アイテムの購入に必要な金額と具体的なアイテムの効果</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200274" y="1762124"/>
-          <a:ext cx="809625" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2911,7 +3597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2965,7 +3657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3012,20 +3710,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2030446-7279-00EB-1122-253FC4E17235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085974" y="1609724"/>
+          <a:ext cx="1038225" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE75E768-3DCB-412C-A1CB-6A0D5B95F351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581399" y="1609724"/>
+          <a:ext cx="1038225" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A1E4B0-4040-471B-AE71-A5DD34F6815E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086349" y="1600199"/>
+          <a:ext cx="1038225" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2486209E-0F1F-4E24-3B70-0E5E16A6D9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3044,14 +3898,360 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781425" y="1762125"/>
-          <a:ext cx="800100" cy="800100"/>
+          <a:off x="2238374" y="1752599"/>
+          <a:ext cx="752475" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A15D259-D8CA-C1D3-6269-63F1EFB025CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695699" y="1619249"/>
+          <a:ext cx="828675" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BACC885-63CD-39FF-FD8D-EC82F12F515E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="1676400"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形吹き出し 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624974CC-9399-46D1-B921-9617456F6EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1371600"/>
+          <a:ext cx="1800225" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90145"/>
+            <a:gd name="adj2" fmla="val 33622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>アイテムの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44604D5D-6BD7-8194-1C9D-4E337F434424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="3124200"/>
+          <a:ext cx="904875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEB69AF-9BE1-4A52-8289-46A1AA0269C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="3124200"/>
+          <a:ext cx="904875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5C3D80-ED0E-4549-B80C-3BEFFAE7BF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="3124200"/>
+          <a:ext cx="904875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3319,11 +4519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3336,11 +4536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3352,11 +4552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書＿河野.xlsx
+++ b/仕様書＿河野.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_EEF24BC7C21C2CF90E0FB6AA38FE8DD3C8C645EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2696A012-672A-497F-A99D-345CB408C0A3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ステータスUI" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,23 +515,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,248 +541,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="0"/>
-          <a:ext cx="2152650" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6305549" y="0"/>
-          <a:ext cx="1933575" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6305550" y="2162175"/>
-          <a:ext cx="2000250" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>攻撃力超強化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="4791075"/>
-          <a:ext cx="2000250" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>防御力超強化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -904,7 +661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -954,7 +711,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1100,23 +857,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1138,8 +895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="5305425"/>
-          <a:ext cx="2343150" cy="2343150"/>
+          <a:off x="685799" y="8420099"/>
+          <a:ext cx="1514475" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,23 +907,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1188,229 +945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="5343525"/>
-          <a:ext cx="2152650" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6219825" y="7591425"/>
-          <a:ext cx="2000250" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>体力超強化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685799" y="8420099"/>
-          <a:ext cx="1514475" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="3543299" y="8429624"/>
           <a:ext cx="1514475" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6419849" y="8324849"/>
-          <a:ext cx="1724026" cy="1724026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,56 +997,6 @@
         <a:xfrm>
           <a:off x="3257549" y="8039100"/>
           <a:ext cx="1933575" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6219825" y="7943850"/>
-          <a:ext cx="2152650" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,77 +1147,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6410325" y="10153650"/>
-          <a:ext cx="2000250" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>入手金額超上昇</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1759,7 +1174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1809,7 +1224,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1859,7 +1274,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1884,23 +1299,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,57 +1324,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="10877550"/>
-          <a:ext cx="1733550" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2024,56 +1389,6 @@
         <a:xfrm>
           <a:off x="3009899" y="10610850"/>
           <a:ext cx="1933575" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6143625" y="10467975"/>
-          <a:ext cx="2152650" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2224,77 +1539,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067424" y="12639675"/>
-          <a:ext cx="2371725" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>魔法攻撃力超強化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2322,7 +1566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2372,7 +1616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2387,106 +1631,6 @@
         <a:xfrm>
           <a:off x="3409949" y="2924174"/>
           <a:ext cx="1762125" cy="1762125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9340828-2496-492C-9D37-233444A28287}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276974" y="2838449"/>
-          <a:ext cx="1885951" cy="1885951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219EA6B-8D85-428A-A119-DD6DB1CBAE82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105525" y="2600325"/>
-          <a:ext cx="2152650" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,7 +1716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2622,7 +1766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2643,73 +1787,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="吹き出し: 角を丸めた四角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0D6D6B-DC8C-A34E-C737-E6C7581058CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10229850" y="771524"/>
-          <a:ext cx="2419350" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -128707"/>
-            <a:gd name="adj2" fmla="val 19057"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>虹色の上昇マークはアイテムの組み合わせによって追加される</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2720,15 +1797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2743,7 +1820,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="352425"/>
+          <a:off x="219075" y="381000"/>
           <a:ext cx="5124450" cy="3076575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2903,56 +1980,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000249" y="819149"/>
-          <a:ext cx="1628776" cy="1628776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3081,16 +2108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3105,7 +2132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="180976"/>
+          <a:off x="4057650" y="161926"/>
           <a:ext cx="2505075" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3145,6 +2172,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952624" y="933449"/>
+          <a:ext cx="1514475" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3392,23 +2463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,73 +2487,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="666750"/>
-          <a:ext cx="628650" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形吹き出し 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3009900" y="400050"/>
-          <a:ext cx="1800225" cy="457199"/>
+          <a:off x="2695574" y="4476750"/>
+          <a:ext cx="3286125" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -90145"/>
-            <a:gd name="adj2" fmla="val 33622"/>
+            <a:gd name="adj1" fmla="val -6568"/>
+            <a:gd name="adj2" fmla="val -167608"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3497,72 +2508,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>前の画面に戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形吹き出し 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695574" y="4476750"/>
-          <a:ext cx="3286125" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6568"/>
-            <a:gd name="adj2" fmla="val -167608"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -4519,10 +3464,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -4536,11 +3481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4552,11 +3497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書＿河野.xlsx
+++ b/仕様書＿河野.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB96DA2-7FD5-4783-8C74-89C96FF5ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム画面" sheetId="2" r:id="rId1"/>
-    <sheet name="ショップ画面" sheetId="3" r:id="rId2"/>
+    <sheet name="アイテム一覧" sheetId="4" r:id="rId2"/>
+    <sheet name="ショップ画面" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +98,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -140,66 +142,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="2657475"/>
-          <a:ext cx="4457700" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -216,7 +158,7 @@
         <xdr:cNvPr id="4" name="四角形吹き出し 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,7 +224,7 @@
         <xdr:cNvPr id="8" name="四角形吹き出し 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,7 +290,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -408,7 +350,7 @@
         <xdr:cNvPr id="10" name="四角形吹き出し 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,19 +401,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -490,7 +438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952624" y="933449"/>
+          <a:off x="2000249" y="657224"/>
           <a:ext cx="1514475" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,6 +446,141 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F253D4F3-6562-2E1A-215A-BC87497483D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="581025"/>
+          <a:ext cx="1581150" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4165AA9D-370E-4A14-88ED-7562653BF064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400051" y="2286001"/>
+          <a:ext cx="4810124" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボーリングの玉</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボーリングに使われていた玉。少し重い。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃力を〇上昇させ、防御力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -505,6 +588,2716 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02E7654-2C81-E5FE-AE66-D56A379779E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="619125"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594893F5-57C7-481B-AF38-7BBF64913607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="619125"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45BE02C-D723-4D7F-982A-EDA5FD3F5798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="628650"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F40FCF-45D3-E6A4-EFC1-8BAE7A92856B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657224" y="571499"/>
+          <a:ext cx="1819275" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD7471-1F8C-2D0D-A630-DD9FFA960B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="2495549"/>
+          <a:ext cx="1943100" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボーリングの玉</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボーリングに使われていた玉。少し重い。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃力を〇上昇させ、防御力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C7B6D5-302D-4DCE-B87D-E94EA06972A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="2476500"/>
+          <a:ext cx="1943100" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>プレーヤー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をセットすることで音楽を聴ける。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はどこ？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>防御力を〇上昇させ、攻撃力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B47A41F-BDEF-91A0-FFB3-9CA242C2AD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="742950"/>
+          <a:ext cx="1323975" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896ACD32-AB75-2DFE-55D7-AE71C1A97B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896099" y="971549"/>
+          <a:ext cx="1533525" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336FD18D-1FD0-4E6A-873E-26FB0AF62C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="2466975"/>
+          <a:ext cx="1943100" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ブラウン管テレビ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期のほうに販売されたテレビ。今は使えなくなった。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>魔法防御力を〇上昇させ、魔法力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F165C2-C18B-4B46-9390-87D40AEADDE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4438650"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514AE373-CC29-4F4B-9E2E-90F21FE16DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="4429125"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6B7725-CB71-4A57-9DCD-80C5F20E03A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="4429125"/>
+          <a:ext cx="1733550" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F1577F-2E77-DA91-7668-5D334E7A7CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="4533900"/>
+          <a:ext cx="1543050" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77A0F23-520B-4C03-B0C2-8F05686F0674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="6276975"/>
+          <a:ext cx="1943100" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>CD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>映像や音楽を書き込むことができる。投げても痛そう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>防御力が高いほど、攻撃力を上昇させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC64E9D9-EE65-7B8C-8A27-0029F782CF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="4724400"/>
+          <a:ext cx="1181100" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93653513-6DF5-4918-9998-97CAF4B7DBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="6267449"/>
+          <a:ext cx="1943100" cy="2057401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>キャッシュカード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お金を入れておくことができるカード。これ一枚でなんでもできる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１ターンごとに攻撃力〇減少させ、獲得金額を〇増加させる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668A92FC-AFDC-BDE0-2ABD-00ABDD0DD37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953249" y="4600574"/>
+          <a:ext cx="1323975" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2853CBB1-E96D-43E6-8BEF-EEF74D7CA3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="6267449"/>
+          <a:ext cx="1943100" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>マウス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パソコンを便利にする道具。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>それをもってカチッとするだけだ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１ターンごとに、魔法力〇上昇させ、魔法防御を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>637346</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313495</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="637346" y="8694668"/>
+          <a:ext cx="1738519" cy="1748044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>534642</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>214105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>420342</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF13609-F5C3-4246-AE5B-2B68D999C2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="534642" y="10542518"/>
+          <a:ext cx="1948070" cy="2013917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ラジオ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音響を無線通信で傍聴できる機械。どこかで体操が始まる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１ターンごとに防御力を〇増加させ、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>231912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA71DF6-C25D-14A6-2AE6-26CB4543E696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="877957" y="9003195"/>
+          <a:ext cx="1316934" cy="1316934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201681</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9838C4F0-7051-4357-B1DF-7BC59CB15ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638964" y="8706264"/>
+          <a:ext cx="1738519" cy="1748044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472108</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>405847</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C190BCD-1D06-6EFB-E251-2D9B54AAE91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3909391" y="8920369"/>
+          <a:ext cx="1308652" cy="1308652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40998</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>614155</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4105BCEF-EA27-4977-9452-420FFB45098A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478281" y="10537549"/>
+          <a:ext cx="1948070" cy="1621321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ハンドミラー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>持ち運び便利な鏡。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おめかししなきゃ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃力が低いほど防御力を上昇させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539010</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209889</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63485EAF-EB27-422B-ABD1-1B2FDC0AB25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6773555" y="8775536"/>
+          <a:ext cx="1749061" cy="1763855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53461</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>164146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134780</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E3E8E5-7BE7-3C24-EBED-155E82724E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6928026" y="8811189"/>
+          <a:ext cx="1456232" cy="1458492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>187601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327577</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CE3A98-D983-48E0-99E1-666A2DE36239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6628985" y="10516014"/>
+          <a:ext cx="1948070" cy="1621321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>電動ドリル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>電気で動くドリル。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これも立派な武器。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体力が低いほど、攻撃力を上昇させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660989</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>331868</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2654F15-AF36-439C-9BDA-3A547568B879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9597924" y="625449"/>
+          <a:ext cx="1733248" cy="1748044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>624509</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510209</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6401769D-39A4-43EC-8F95-1E4BB3E8EAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9561444" y="2466975"/>
+          <a:ext cx="1948069" cy="1652794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ヘッドフォン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音の質をよくするための道具。周りの音は聞こえない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>魔法力を〇上昇させ、魔法防御力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>654325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A7394-D3F9-4618-2AFE-21BED2F49579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591260" y="770280"/>
+          <a:ext cx="1706218" cy="1706218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26542</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>384877</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>206763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90789B33-B8B8-407A-BADF-6032367FB4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9650933" y="4463610"/>
+          <a:ext cx="1733248" cy="1748044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>240194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82F378C-FB73-4881-3108-044E40C5525A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9765195" y="4580281"/>
+          <a:ext cx="1424609" cy="1424609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653083</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538783</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>233983</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC44FBA8-67F5-4130-9BDB-E78C4C939C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9590018" y="6317145"/>
+          <a:ext cx="1948069" cy="2083490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>NS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>マグネット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>強力な磁力を持つ金属。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>間違っても電子機器の近くに置いてはならない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１ターンごとに魔法防御を〇上昇させ、魔法力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40208</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398543</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4B71C-AC53-4964-83BF-5462408F755F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9641408" y="8597460"/>
+          <a:ext cx="1729935" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771EA149-6BB1-468B-1DF2-744A6A3AE69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744074" y="8734424"/>
+          <a:ext cx="1533525" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>656810</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>181389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542511</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D3C412-B886-4344-8FB0-0BCD315B8ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572210" y="10420764"/>
+          <a:ext cx="1943101" cy="1606826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>USB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>メモリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データを記憶しておく機械。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>破損には注意。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃力が低いほど、魔法力を上昇させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215799</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>572478</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>206348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC62A34F-6AD4-432E-936C-BDC2A1E9E990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12560199" y="615924"/>
+          <a:ext cx="1728279" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188844</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8D86CF-3420-4200-867D-5804F242CA5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12533244" y="2447925"/>
+          <a:ext cx="1943100" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>スマートフォン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>様々な機能を備えた高性能な電話機。これがないと不便・・・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体力を〇上昇させ、防御力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB18B0D1-34B4-88C9-6311-B6414AA9AC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="590550"/>
+          <a:ext cx="1638300" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297383</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>655718</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24032883-A7E7-4156-B718-83669B139E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12641783" y="4415985"/>
+          <a:ext cx="1729935" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671D0EEC-ACFE-7B2E-4138-2663B4931945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096874" y="4791075"/>
+          <a:ext cx="828675" cy="1139428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>65018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDDCBC-33A5-4B78-BBB7-C36F26F50409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12523718" y="6269520"/>
+          <a:ext cx="1943100" cy="1874355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>砂時計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>砂を使った時計。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時間は有限。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１ターンごとに攻撃力を〇上昇させ、体力を〇減少させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -523,7 +3316,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +3376,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +3436,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +3496,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,7 +3556,7 @@
         <xdr:cNvPr id="10" name="四角形吹き出し 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +3622,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,7 +3682,7 @@
         <xdr:cNvPr id="13" name="四角形吹き出し 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +3748,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2030446-7279-00EB-1122-253FC4E17235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +3798,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE75E768-3DCB-412C-A1CB-6A0D5B95F351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +3848,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A1E4B0-4040-471B-AE71-A5DD34F6815E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +3898,7 @@
         <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A15D259-D8CA-C1D3-6269-63F1EFB025CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +3948,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BACC885-63CD-39FF-FD8D-EC82F12F515E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +3998,7 @@
         <xdr:cNvPr id="23" name="四角形吹き出し 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624974CC-9399-46D1-B921-9617456F6EC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +4064,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44604D5D-6BD7-8194-1C9D-4E337F434424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +4124,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEB69AF-9BE1-4A52-8289-46A1AA0269C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +4184,7 @@
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5C3D80-ED0E-4549-B80C-3BEFFAE7BF2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +4241,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1492,7 +4291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1549,7 +4354,7 @@
         <xdr:cNvPr id="21" name="四角形吹き出し 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,11 +4667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1878,10 +4683,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DA04A-6951-48AA-A6C2-F6F1B7C8FEA8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/仕様書＿河野.xlsx
+++ b/仕様書＿河野.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB96DA2-7FD5-4783-8C74-89C96FF5ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム画面" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +574,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>攻撃力を〇上昇させ、防御力を〇減少させる</a:t>
+            <a:t>攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -868,7 +883,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>攻撃力を〇上昇させ、防御力を〇減少させる</a:t>
+            <a:t>物理攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、物理防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -972,7 +1003,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>防御力を〇上昇させ、攻撃力を〇減少させる</a:t>
+            <a:t>物理防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、物理攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1088,8 +1135,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1107,7 +1154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6629400" y="2466975"/>
-          <a:ext cx="1943100" cy="1638300"/>
+          <a:ext cx="2286000" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,7 +1207,30 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>魔法防御力を〇上昇させ、魔法力を〇減少させる</a:t>
+            <a:t>魔法防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>魔法攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1377,7 +1447,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1395,7 +1465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="542925" y="6276975"/>
-          <a:ext cx="1943100" cy="1447800"/>
+          <a:ext cx="2095500" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,7 +1517,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>防御力が高いほど、攻撃力を上昇させる</a:t>
+            <a:t>物理防御力が高いほど、物理攻撃力を上昇させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1513,8 +1583,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -1532,7 +1602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3514725" y="6267449"/>
-          <a:ext cx="1943100" cy="2057401"/>
+          <a:ext cx="2238376" cy="2057401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,7 +1655,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１ターンごとに攻撃力〇減少させ、獲得金額を〇増加させる。</a:t>
+            <a:t>１ターンごとに物理攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させ、獲得金額を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>増加させる。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1730,7 +1816,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１ターンごとに、魔法力〇上昇させ、魔法防御を〇減少させる</a:t>
+            <a:t>１ターンごとに、魔法攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、魔法防御を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1868,7 +1970,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１ターンごとに防御力を〇増加させ、</a:t>
+            <a:t>１ターンごとに防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>増加させ、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1876,7 +1986,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を〇減少させる</a:t>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2454,7 +2572,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>魔法力を〇上昇させ、魔法防御力を〇減少させる</a:t>
+            <a:t>魔法攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、魔法防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2703,7 +2837,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１ターンごとに魔法防御を〇上昇させ、魔法力を〇減少させる</a:t>
+            <a:t>１ターンごとに魔法防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、魔法攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3040,7 +3190,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>体力を〇上昇させ、防御力を〇減少させる</a:t>
+            <a:t>体力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、防御力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3140,56 +3306,6 @@
         <a:xfrm>
           <a:off x="12641783" y="4415985"/>
           <a:ext cx="1729935" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671D0EEC-ACFE-7B2E-4138-2663B4931945}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096874" y="4791075"/>
-          <a:ext cx="828675" cy="1139428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3285,12 +3401,258 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１ターンごとに攻撃力を〇上昇させ、体力を〇減少させる</a:t>
+            <a:t>１ターンごとに攻撃力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上昇させ、体力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減少させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295702</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>654037</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4B71C-AC53-4964-83BF-5462408F755F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12599761" y="8496607"/>
+          <a:ext cx="1725452" cy="1713940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12841941" y="8729383"/>
+          <a:ext cx="1131794" cy="1131794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215298</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>189795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>100999</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D3C412-B886-4344-8FB0-0BCD315B8ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12519357" y="10308707"/>
+          <a:ext cx="1936377" cy="1132500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>LIFE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ジュース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>缶ジュース。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体力を２５％回復する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12977811" y="4643437"/>
+          <a:ext cx="1309687" cy="1309687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4667,11 +5029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4683,11 +5045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DA04A-6951-48AA-A6C2-F6F1B7C8FEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4700,7 +5062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/仕様書＿河野.xlsx
+++ b/仕様書＿河野.xlsx
@@ -3655,6 +3655,388 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>613534</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289683</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>117404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613534" y="12671355"/>
+          <a:ext cx="1747837" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51559</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418271</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3504372" y="12657067"/>
+          <a:ext cx="1747837" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537334</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>45967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213484</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6752397" y="12666592"/>
+          <a:ext cx="1747837" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142047</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>55492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508759</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>122166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9809922" y="12676117"/>
+          <a:ext cx="1747837" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199197</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>65017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>565909</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>131691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12629322" y="12685642"/>
+          <a:ext cx="1747837" cy="1733549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74542</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57452</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="12987130"/>
+          <a:ext cx="1357823" cy="1367044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>106019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3685760" y="13043452"/>
+          <a:ext cx="1234110" cy="1234110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7007086" y="13061673"/>
+          <a:ext cx="1292087" cy="1292087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4641,15 +5023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4664,7 +5046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609725" y="742950"/>
+          <a:off x="1371600" y="657225"/>
           <a:ext cx="590550" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4758,6 +5140,126 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             <a:t>購入終了ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="647699"/>
+          <a:ext cx="666750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="114300"/>
+          <a:ext cx="2505075" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82209"/>
+            <a:gd name="adj2" fmla="val 52795"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>アイテム一覧のボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5048,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5066,7 +5568,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
